--- a/Current_Workspace/testOutput.xlsx
+++ b/Current_Workspace/testOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.c.larson\Documents\GitHub\SMART_UAV_disaster_algorithm_1\Current_Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0751FE5-3747-4094-B95B-BFD70F55BB1A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704242FC-5EB5-422E-9711-1305E83189F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11352" windowHeight="11220" activeTab="2" xr2:uid="{3F5B97A5-B34E-4C9D-A5E0-4127B59BC127}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11352" windowHeight="11220" activeTab="1" xr2:uid="{3F5B97A5-B34E-4C9D-A5E0-4127B59BC127}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1413">
   <si>
     <t>Completed</t>
   </si>
@@ -4260,6 +4260,12 @@
   </si>
   <si>
     <t>Simulation 100 Zone 13</t>
+  </si>
+  <si>
+    <t>Averages:</t>
+  </si>
+  <si>
+    <t>Standard Deviations</t>
   </si>
 </sst>
 </file>
@@ -4623,10 +4629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBE804A-A723-41BF-88C3-930506746162}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8167,6 +8173,9 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1411</v>
+      </c>
       <c r="B102">
         <f>AVERAGE(B2:B101)</f>
         <v>109.27</v>
@@ -8186,6 +8195,71 @@
       <c r="F102">
         <f>AVERAGE(F1:F101)</f>
         <v>1.3600609226976501</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:K102" si="0">AVERAGE(G1:G101)</f>
+        <v>63.09</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="0"/>
+        <v>46.98</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="0"/>
+        <v>110.07</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="0"/>
+        <v>771.29</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="0"/>
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B103">
+        <f>_xlfn.STDEV.S(B1:B101)</f>
+        <v>4.78603819627065</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:K103" si="1">_xlfn.STDEV.S(C1:C101)</f>
+        <v>6.6013390132363901</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0.14381585961765644</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>8.2643562723560812E-2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0.1624494116287292</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>2.2966598495742621</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>3.8611768761203966</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>4.3998507780022331</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>24.454573429445894</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>6.7821140293473956</v>
       </c>
     </row>
   </sheetData>
@@ -8197,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FC1DE6-E409-40E6-BF82-631549DD3A7E}">
   <dimension ref="A1:F1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1301"/>
+    <sheetView topLeftCell="A1002" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Current_Workspace/testOutput.xlsx
+++ b/Current_Workspace/testOutput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.c.larson\Documents\GitHub\SMART_UAV_disaster_algorithm_1\Current_Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704242FC-5EB5-422E-9711-1305E83189F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC515A-4EA6-4293-AE62-58E9C5705B58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11352" windowHeight="11220" activeTab="1" xr2:uid="{3F5B97A5-B34E-4C9D-A5E0-4127B59BC127}"/>
   </bookViews>
